--- a/Лаба1/Ч и Б Я Задание 2.xlsx
+++ b/Лаба1/Ч и Б Я Задание 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\projects\VSprojects\Лаба1\Лаба1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E6A0F2-6E8C-4460-AC01-8953E4C2D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B91F5-23BE-4604-A8F3-6546FC83FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,7 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -516,7 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -543,8 +541,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,7 +553,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,8 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -578,9 +571,23 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
@@ -907,41 +914,41 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="14"/>
@@ -955,35 +962,35 @@
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="29"/>
+      <c r="C4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="16"/>
@@ -1001,10 +1008,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1019,7 +1026,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1032,7 +1039,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1041,7 +1048,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="52"/>
+      <c r="J8" s="50"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,11 +1061,11 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="52"/>
+      <c r="J9" s="50"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="14"/>
@@ -1069,37 +1076,37 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="52"/>
+      <c r="J10" s="50"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="61"/>
+      <c r="B11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="57"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1115,16 +1122,16 @@
         <v>6</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="58" t="s">
         <v>6</v>
       </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1134,28 +1141,28 @@
       <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="62"/>
+      <c r="J13" s="58"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="63" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="59" t="s">
         <v>6</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="14"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1190,7 +1197,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="14"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1226,7 +1233,7 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1262,7 +1269,7 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1273,7 +1280,7 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1383,7 +1390,7 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1463,7 +1470,7 @@
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1555,7 +1562,7 @@
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1571,7 +1578,7 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1603,7 +1610,7 @@
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1618,7 +1625,7 @@
       <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1633,7 +1640,7 @@
       <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1733,8 +1740,8 @@
       <c r="H54" s="2"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
       <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -1777,7 +1784,7 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1788,14 +1795,14 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
       <c r="L59" s="6"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -1850,16 +1857,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,57 +1875,57 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="E3" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1928,31 +1935,31 @@
       <c r="C5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -1962,27 +1969,27 @@
       <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="65" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="61" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1996,46 +2003,46 @@
       <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="E10" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="72" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>41</v>
       </c>
@@ -2043,33 +2050,33 @@
         <v>45</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="73"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34" t="s">
+      <c r="E13" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="64" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -2198,7 +2205,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="54"/>
+      <c r="E31" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2210,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9487517-4A4D-459B-B081-2C6EE1AD188A}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2254,30 +2261,30 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="32"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -2299,49 +2306,49 @@
         <v>6</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32" t="s">
+      <c r="C4" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -2351,33 +2358,33 @@
       <c r="J5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="53"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -2401,47 +2408,47 @@
       <c r="J7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="20">
         <v>1</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="32"/>
+      <c r="C8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2449,13 +2456,13 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -2554,25 +2561,25 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
+      <c r="B21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
+      <c r="B22" s="50"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
+      <c r="B23" s="50"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
+      <c r="B24" s="50"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
+      <c r="B25" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
